--- a/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.2473431406342</v>
+        <v>23.87904316972967</v>
       </c>
       <c r="C11" t="n">
-        <v>72.67891699046449</v>
+        <v>71.44889635714426</v>
       </c>
       <c r="D11" t="n">
-        <v>88.23580615702176</v>
+        <v>87.16370815916756</v>
       </c>
     </row>
     <row r="12">
